--- a/Configs/Datas/AnimationData.xlsx
+++ b/Configs/Datas/AnimationData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>CharacterAnim</t>
+  </si>
+  <si>
+    <t>Bullet1Anim</t>
+  </si>
+  <si>
+    <t>Bullet2Anim</t>
   </si>
 </sst>
 </file>
@@ -989,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1007,13 +1013,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
@@ -1027,13 +1026,6 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
@@ -1049,14 +1041,6 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
@@ -1066,6 +1050,22 @@
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/AnimationData.xlsx
+++ b/Configs/Datas/AnimationData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>##var</t>
   </si>
@@ -58,10 +58,25 @@
     <t>CharacterAnim</t>
   </si>
   <si>
+    <t>主角动画</t>
+  </si>
+  <si>
     <t>Bullet1Anim</t>
   </si>
   <si>
+    <t>主角左键</t>
+  </si>
+  <si>
     <t>Bullet2Anim</t>
+  </si>
+  <si>
+    <t>主角e</t>
+  </si>
+  <si>
+    <t>Bullet3Anim</t>
+  </si>
+  <si>
+    <t>主角shift/q</t>
   </si>
 </sst>
 </file>
@@ -995,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1044,28 +1059,48 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:5">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:5">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:5">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/AnimationData.xlsx
+++ b/Configs/Datas/AnimationData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="18270" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -77,6 +77,36 @@
   </si>
   <si>
     <t>主角shift/q</t>
+  </si>
+  <si>
+    <t>ZiSeShiLaiMu</t>
+  </si>
+  <si>
+    <t>紫色史莱姆待机/攻击动画</t>
+  </si>
+  <si>
+    <t>FenNuShiLaiMu</t>
+  </si>
+  <si>
+    <t>愤怒史莱姆动画</t>
+  </si>
+  <si>
+    <t>FenNuHuoQiu</t>
+  </si>
+  <si>
+    <t>愤怒火球动画</t>
+  </si>
+  <si>
+    <t>HuoLing</t>
+  </si>
+  <si>
+    <t>火灵待机+攻击动画</t>
+  </si>
+  <si>
+    <t>BOSS1move</t>
+  </si>
+  <si>
+    <t>Boss待机</t>
   </si>
 </sst>
 </file>
@@ -692,11 +722,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,15 +1037,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,10 +1055,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1041,23 +1066,19 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5">
@@ -1101,6 +1122,61 @@
       </c>
       <c r="E8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/AnimationData.xlsx
+++ b/Configs/Datas/AnimationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="12375"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>##</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>透明子弹的空动画</t>
   </si>
   <si>
     <t>CharacterAnim</t>
@@ -1037,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1082,7 +1088,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1093,7 +1099,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1104,7 +1110,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1115,7 +1121,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1126,7 +1132,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1137,7 +1143,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1148,7 +1154,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1159,7 +1165,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1170,13 +1176,24 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1212,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1212,7 +1229,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/AnimationData.xlsx
+++ b/Configs/Datas/AnimationData.xlsx
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/Configs/Datas/AnimationData.xlsx
+++ b/Configs/Datas/AnimationData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="17490" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1046,10 +1046,10 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1212,7 +1212,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1229,7 +1229,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/AnimationData.xlsx
+++ b/Configs/Datas/AnimationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17490" windowHeight="10935"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -55,6 +55,9 @@
     <t>##</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>Empty</t>
   </si>
   <si>
@@ -67,6 +70,12 @@
     <t>主角动画</t>
   </si>
   <si>
+    <t>LiZhiAnim</t>
+  </si>
+  <si>
+    <t>理智之花待机动画</t>
+  </si>
+  <si>
     <t>Bullet1Anim</t>
   </si>
   <si>
@@ -112,7 +121,133 @@
     <t>BOSS1move</t>
   </si>
   <si>
-    <t>Boss待机</t>
+    <t>愤怒之花待机</t>
+  </si>
+  <si>
+    <t>BOSS1skill3</t>
+  </si>
+  <si>
+    <t>近战抽打动画-愤怒之花</t>
+  </si>
+  <si>
+    <t>BOSS1skill4</t>
+  </si>
+  <si>
+    <t>冲刺技能动画-愤怒之花</t>
+  </si>
+  <si>
+    <t>BOSS1skill5</t>
+  </si>
+  <si>
+    <t>愤怒之花反弹技能</t>
+  </si>
+  <si>
+    <t>LiZhiHuoQiu</t>
+  </si>
+  <si>
+    <t>理智之花火球</t>
+  </si>
+  <si>
+    <t>LiZhiSkill E</t>
+  </si>
+  <si>
+    <t>理智之花反弹</t>
+  </si>
+  <si>
+    <t>LiZhiSkill Shift</t>
+  </si>
+  <si>
+    <t>理智之花冲刺</t>
+  </si>
+  <si>
+    <t>小软泥怪</t>
+  </si>
+  <si>
+    <t>小软泥怪待机动画</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆(蓝色史莱姆/愤怒史莱姆换皮)待机动画</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆水球</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆攻击动画</t>
+  </si>
+  <si>
+    <t>悲伤水灵</t>
+  </si>
+  <si>
+    <t>悲伤水灵待机动画</t>
+  </si>
+  <si>
+    <t>蓄力大水泡</t>
+  </si>
+  <si>
+    <t>悲伤水灵的蓄力攻击</t>
+  </si>
+  <si>
+    <t>大软泥怪待机</t>
+  </si>
+  <si>
+    <t>大软泥怪待机动画</t>
+  </si>
+  <si>
+    <t>大软泥召唤动画</t>
+  </si>
+  <si>
+    <t>悲伤之花待机动画</t>
+  </si>
+  <si>
+    <t>悲伤之花水柱攻击</t>
+  </si>
+  <si>
+    <t>悲伤之花召唤攻击</t>
+  </si>
+  <si>
+    <t>悲伤之花蓄力水泡</t>
+  </si>
+  <si>
+    <t>悲伤之花治疗法阵</t>
+  </si>
+  <si>
+    <t>地刺-草地区域</t>
+  </si>
+  <si>
+    <t>地刺-海岛区域</t>
+  </si>
+  <si>
+    <t>洞穴区域石像激活动画</t>
+  </si>
+  <si>
+    <t>洞穴区域碎石动画</t>
+  </si>
+  <si>
+    <t>绿色区域石像激活动画</t>
+  </si>
+  <si>
+    <t>绿色区域碎石动画</t>
+  </si>
+  <si>
+    <t>蘑菇闪烁动画</t>
+  </si>
+  <si>
+    <t>钥匙闪烁动画</t>
+  </si>
+  <si>
+    <t>开门动画</t>
+  </si>
+  <si>
+    <t>BOSS1Bullet</t>
+  </si>
+  <si>
+    <t>小软泥怪2</t>
+  </si>
+  <si>
+    <t>大水泡飞行</t>
   </si>
 </sst>
 </file>
@@ -278,12 +413,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -604,7 +745,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,16 +769,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -646,90 +787,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,13 +1190,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1078,122 +1225,589 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="1">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="1">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1">
         <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="1">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="1">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="1">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="1">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="1">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/AnimationData.xlsx
+++ b/Configs/Datas/AnimationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17490" windowHeight="10935"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -55,6 +55,9 @@
     <t>##</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>Empty</t>
   </si>
   <si>
@@ -67,6 +70,12 @@
     <t>主角动画</t>
   </si>
   <si>
+    <t>LiZhiAnim</t>
+  </si>
+  <si>
+    <t>理智之花待机动画</t>
+  </si>
+  <si>
     <t>Bullet1Anim</t>
   </si>
   <si>
@@ -112,7 +121,145 @@
     <t>BOSS1move</t>
   </si>
   <si>
-    <t>Boss待机</t>
+    <t>愤怒之花待机</t>
+  </si>
+  <si>
+    <t>BOSS1skill3</t>
+  </si>
+  <si>
+    <t>近战抽打动画-愤怒之花</t>
+  </si>
+  <si>
+    <t>BOSS1skill4</t>
+  </si>
+  <si>
+    <t>冲刺技能动画-愤怒之花</t>
+  </si>
+  <si>
+    <t>BOSS1skill5</t>
+  </si>
+  <si>
+    <t>愤怒之花反弹技能</t>
+  </si>
+  <si>
+    <t>LiZhiHuoQiu</t>
+  </si>
+  <si>
+    <t>理智之花火球</t>
+  </si>
+  <si>
+    <t>LiZhiSkill E</t>
+  </si>
+  <si>
+    <t>理智之花反弹</t>
+  </si>
+  <si>
+    <t>LiZhiSkill Shift</t>
+  </si>
+  <si>
+    <t>理智之花冲刺</t>
+  </si>
+  <si>
+    <t>小软泥怪</t>
+  </si>
+  <si>
+    <t>小软泥怪待机动画</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆(蓝色史莱姆/愤怒史莱姆换皮)待机动画</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆水球</t>
+  </si>
+  <si>
+    <t>悲伤史莱姆攻击动画</t>
+  </si>
+  <si>
+    <t>悲伤水灵</t>
+  </si>
+  <si>
+    <t>悲伤水灵待机动画</t>
+  </si>
+  <si>
+    <t>蓄力大水泡</t>
+  </si>
+  <si>
+    <t>悲伤水灵的蓄力攻击</t>
+  </si>
+  <si>
+    <t>大软泥怪待机</t>
+  </si>
+  <si>
+    <t>大软泥怪待机动画</t>
+  </si>
+  <si>
+    <t>大软泥召唤动画</t>
+  </si>
+  <si>
+    <t>悲伤之花待机动画</t>
+  </si>
+  <si>
+    <t>悲伤之花水柱攻击</t>
+  </si>
+  <si>
+    <t>悲伤之花召唤攻击</t>
+  </si>
+  <si>
+    <t>悲伤之花蓄力水泡</t>
+  </si>
+  <si>
+    <t>悲伤之花治疗法阵</t>
+  </si>
+  <si>
+    <t>地刺-草地区域</t>
+  </si>
+  <si>
+    <t>地刺-海岛区域</t>
+  </si>
+  <si>
+    <t>洞穴区域石像激活动画</t>
+  </si>
+  <si>
+    <t>洞穴区域碎石动画</t>
+  </si>
+  <si>
+    <t>绿色区域石像激活动画</t>
+  </si>
+  <si>
+    <t>绿色区域碎石动画</t>
+  </si>
+  <si>
+    <t>蘑菇闪烁动画</t>
+  </si>
+  <si>
+    <t>钥匙闪烁动画</t>
+  </si>
+  <si>
+    <t>开门动画</t>
+  </si>
+  <si>
+    <t>BOSS1Bullet</t>
+  </si>
+  <si>
+    <t>小软泥怪2</t>
+  </si>
+  <si>
+    <t>大水泡飞行</t>
+  </si>
+  <si>
+    <t>定向陷阱朝上攻击</t>
+  </si>
+  <si>
+    <t>定向陷阱朝下攻击</t>
+  </si>
+  <si>
+    <t>定向陷阱朝左攻击</t>
+  </si>
+  <si>
+    <t>定向陷阱朝右攻击</t>
   </si>
 </sst>
 </file>
@@ -278,12 +425,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -604,7 +757,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,16 +781,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -646,90 +799,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,13 +1202,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1078,122 +1237,621 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="1">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="1">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1">
         <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="1">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="1">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="1">
+        <v>35</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="1">
+        <v>36</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="1">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/AnimationData.xlsx
+++ b/Configs/Datas/AnimationData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -118,7 +118,7 @@
     <t>火灵待机+攻击动画</t>
   </si>
   <si>
-    <t>BOSS1move</t>
+    <t>BOSS1Anim</t>
   </si>
   <si>
     <t>愤怒之花待机</t>
@@ -190,7 +190,7 @@
     <t>悲伤水灵的蓄力攻击</t>
   </si>
   <si>
-    <t>大软泥怪待机</t>
+    <t>大软泥怪</t>
   </si>
   <si>
     <t>大软泥怪待机动画</t>
@@ -199,7 +199,7 @@
     <t>大软泥召唤动画</t>
   </si>
   <si>
-    <t>悲伤之花待机动画</t>
+    <t>悲伤之花动画</t>
   </si>
   <si>
     <t>悲伤之花水柱攻击</t>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>定向陷阱朝右攻击</t>
+  </si>
+  <si>
+    <t>bosshuoqiu</t>
+  </si>
+  <si>
+    <t>竖碎石动画</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1852,6 +1858,22 @@
       </c>
       <c r="C49" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
